--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Documents\GitHub\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E3F516-66AF-48BE-807E-EB8BBB0341D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBB401D-F8CF-4EAD-80B6-F28A97A32ABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,30 @@
   </si>
   <si>
     <t>demeritSpecies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cartridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD2BB1C-9470-4D2E-B50C-A4F4695ACD15}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -559,6 +583,7 @@
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="81" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="7" width="16.875" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
   </cols>
@@ -602,14 +627,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -628,17 +653,17 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>40</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" t="s">
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -654,14 +679,14 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>40</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="G4" t="s">
+        <v>40</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -680,14 +705,14 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>40</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="G5" t="s">
+        <v>40</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -706,17 +731,17 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>40</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="G6" t="s">
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -732,17 +757,17 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>40</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="G7" t="s">
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -758,17 +783,17 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>40</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="G8" t="s">
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -784,17 +809,17 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>40</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>0</v>
+      <c r="G9" t="s">
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -810,14 +835,14 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>40</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="G10" t="s">
+        <v>40</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,14 +861,14 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -862,17 +887,17 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>40</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>0</v>
+      <c r="G12" t="s">
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -888,17 +913,17 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>42</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -914,17 +939,17 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="E14" t="s">
+        <v>40</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>0</v>
+      <c r="G14" t="s">
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -940,17 +965,17 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="E15" t="s">
+        <v>44</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -966,14 +991,14 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="E16" t="s">
+        <v>45</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -992,14 +1017,14 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="E17" t="s">
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
       </c>
       <c r="H17">
         <v>0</v>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Documents\GitHub\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBB401D-F8CF-4EAD-80B6-F28A97A32ABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24F29AA-76EF-443A-9D05-AB621178C0DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Documents\GitHub\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24F29AA-76EF-443A-9D05-AB621178C0DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC24668-C950-4894-9C75-0D5B06CFBCE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,18 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어지럼증 유발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맹독 수리검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거미줄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,18 +124,6 @@
   </si>
   <si>
     <t>수리검을 던져서 적을 벽에 부딪히게 만들면 기절하고, 추가 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검을 맞췄을 때 넉백 시간이 늘어납니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 시작후 10초간 강해집니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검에 도트 데미지가 생깁니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -572,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD2BB1C-9470-4D2E-B50C-A4F4695ACD15}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -599,19 +575,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -622,19 +598,19 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -648,19 +624,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -674,19 +650,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -700,19 +676,19 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -726,19 +702,19 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -752,19 +728,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -778,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -804,19 +780,19 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -830,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -856,22 +832,22 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -882,19 +858,19 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H12">
         <v>20</v>
@@ -908,22 +884,22 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -934,99 +910,21 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Documents\GitHub\W07_BSHSMZOHICSM\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Desktop\W07\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC24668-C950-4894-9C75-0D5B06CFBCE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB3321A-3FFE-4929-80FF-0F902F61FC40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +555,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -688,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -824,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Desktop\W07\W07_BSHSMZOHICSM\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Documents\GitHub\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB3321A-3FFE-4929-80FF-0F902F61FC40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AEB79A-C2CB-400A-ABB0-19CC8EA81EC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>벽꿍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거미줄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수리검을 던져서 적을 벽에 부딪히게 만들면 기절하고, 추가 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수리검에 슬로우 기능이 생깁니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +180,14 @@
   </si>
   <si>
     <t>ChargeSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검이 적을 밀칩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD2BB1C-9470-4D2E-B50C-A4F4695ACD15}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,19 +579,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -602,19 +602,19 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -628,19 +628,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -654,19 +654,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -706,19 +706,19 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -732,19 +732,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -758,22 +758,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -784,22 +784,22 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -807,22 +807,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -859,22 +859,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12">
         <v>20</v>
@@ -885,22 +885,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>0</v>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Documents\GitHub\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AEB79A-C2CB-400A-ABB0-19CC8EA81EC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5854981F-0A1D-4B55-8635-D8B4ABAC0CDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,18 +43,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특대형 수리검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>닌자 백팩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빠른 장전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부메랑!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,22 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뱀파이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약점 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불타는 수리검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검이 더욱 커집니다. 피격 범위가 늘어납니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수리검을 하나 더 가질 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수리검의 차징 속도가 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수리검이 플레이어에게 다시 돌아옵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,18 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수리검에 흡혈 기능이 생깁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검에 맞은 적은 3초동안 받는 피해량이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검에 치유량 감소 효과가 생깁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>meritAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,19 +143,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수리검이 적을 밀칩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넉백!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>체력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 20 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 15 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시 수 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 대시 수가 1 늘어납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DashNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 사거리가 3 늘어납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대사거리 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차징속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검의 차징 속도가 50% 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 체력이 40으로 고정됩니다. 수리검을 상대에게 3번 맞추면 상대가 즉사합니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +227,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -234,8 +261,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD2BB1C-9470-4D2E-B50C-A4F4695ACD15}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,356 +609,356 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Documents\GitHub\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5854981F-0A1D-4B55-8635-D8B4ABAC0CDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE33B7A-9B56-4F1B-BF1A-B7810B256B10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Documents\GitHub\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE33B7A-9B56-4F1B-BF1A-B7810B256B10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3F4095-48FC-48F5-81A0-074B7CBD3D9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수리검이 벽에 부딪히면 튕깁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수리검이 플레이어에게 다시 돌아옵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,18 +79,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>던지는 수리검의 수가 늘어납니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수리검에 유도 기능이 생깁니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수리검에 슬로우 기능이 생깁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>meritAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력이 20 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력이 15 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AtkDmg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,7 +187,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자신의 체력이 40으로 고정됩니다. 수리검을 상대에게 3번 맞추면 상대가 즉사합니다.</t>
+    <t>자신의 체력이 50으로 고정됩니다. 수리검을 상대에게 3번 맞추면 상대가 즉사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검이 거미줄을 소환합니다. 거미줄 안에 있는 적은 대시할 수 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던지는 수리검의 수가 2개 늘어납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 10 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 30 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검이 벽에 부딪히면 튕깁니다. 튕긴 수리검은 2배의 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -585,7 +586,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,19 +610,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -629,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -655,22 +656,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -690,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -707,22 +708,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -733,22 +734,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -759,22 +760,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -788,19 +789,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -814,19 +815,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -840,19 +841,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1">
         <v>30</v>
@@ -866,19 +867,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1">
         <v>5</v>
@@ -892,19 +893,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H12" s="1">
         <v>20</v>
@@ -918,19 +919,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1">
         <v>10</v>
@@ -941,22 +942,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Documents\GitHub\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3F4095-48FC-48F5-81A0-074B7CBD3D9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ADB992-175B-4A6D-8094-10D11053EAB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Documents\GitHub\W07_BSHSMZOHICSM\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Desktop\W07\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ADB992-175B-4A6D-8094-10D11053EAB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69345BA9-38F5-4C7A-AD0B-9E04EA86BED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수리검이 플레이어에게 다시 돌아옵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수리검이 폭발을 일으킵니다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +204,22 @@
   </si>
   <si>
     <t>수리검이 벽에 부딪히면 튕깁니다. 튕긴 수리검은 2배의 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아와!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검이 바닥에 떨어지면 자동으로 주인에게 돌아옵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 작동하지 않습니다. (탈론W처럼 변경중)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD2BB1C-9470-4D2E-B50C-A4F4695ACD15}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,19 +622,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -630,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="1">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -656,22 +668,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F3" s="1">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -691,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -708,22 +720,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -734,22 +746,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -760,22 +772,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -789,19 +801,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -815,19 +827,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -841,19 +853,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1">
         <v>30</v>
@@ -867,19 +879,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H11" s="1">
         <v>5</v>
@@ -893,19 +905,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1">
         <v>20</v>
@@ -919,19 +931,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1">
         <v>10</v>
@@ -942,25 +954,51 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Desktop\W07\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69345BA9-38F5-4C7A-AD0B-9E04EA86BED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C161F409-094C-4B66-992A-7D955B58367D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 사거리가 3 늘어납니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최대사거리 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,14 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력이 10 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 30 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수리검이 벽에 부딪히면 튕깁니다. 튕긴 수리검은 2배의 데미지를 줍니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +208,18 @@
   </si>
   <si>
     <t>현재 작동하지 않습니다. (탈론W처럼 변경중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 20 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 5 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차징 단계가 1 늘어납니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD2BB1C-9470-4D2E-B50C-A4F4695ACD15}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
@@ -746,10 +746,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -772,10 +772,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -954,10 +954,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Desktop\W07\W07_BSHSMZOHICSM\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Documents\GitHub\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C161F409-094C-4B66-992A-7D955B58367D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBF69CA-806C-46AF-8429-A802078360E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부메랑!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>익스플로전!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수리검이 폭발을 일으킵니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검에 유도 기능이 생깁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>meritAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,38 +167,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자신의 체력이 50으로 고정됩니다. 수리검을 상대에게 3번 맞추면 상대가 즉사합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검이 거미줄을 소환합니다. 거미줄 안에 있는 적은 대시할 수 없습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>던지는 수리검의 수가 2개 늘어납니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수리검이 벽에 부딪히면 튕깁니다. 튕긴 수리검은 2배의 데미지를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>돌아와!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수리검이 바닥에 떨어지면 자동으로 주인에게 돌아옵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 작동하지 않습니다. (탈론W처럼 변경중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력이 20 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +188,30 @@
   </si>
   <si>
     <t>차징 단계가 1 늘어납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검이 벽에 부딪히면 튕깁니다. 튕긴 수리검은 2배의 데미지를 줍니다.(중첩불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검이 바닥에 떨어지면 자동으로 주인에게 돌아옵니다.(중첩불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검이 폭발을 일으킵니다!(중첩불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검에 유도 기능이 생깁니다.(중첩불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검이 거미줄을 소환합니다. 거미줄 안에 있는 적은 대시할 수 없습니다.(중첩불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 체력이 50으로 고정됩니다. 수리검을 상대에게 3번 맞추면 상대가 즉사합니다.(중첩불가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD2BB1C-9470-4D2E-B50C-A4F4695ACD15}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -622,19 +614,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -642,22 +634,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -668,22 +660,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -697,19 +689,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -720,22 +712,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -746,22 +738,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -772,22 +764,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -807,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -824,22 +816,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -850,22 +842,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1">
         <v>30</v>
@@ -876,22 +868,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1">
         <v>5</v>
@@ -902,22 +894,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1">
         <v>20</v>
@@ -928,22 +920,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1">
         <v>10</v>
@@ -954,51 +946,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jungle\Documents\GitHub\W07_BSHSMZOHICSM\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBF69CA-806C-46AF-8429-A802078360E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD1989-CB92-46B7-A2AE-88EF85A5F681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -590,7 +590,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -912,7 +912,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD1989-CB92-46B7-A2AE-88EF85A5F681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F961892-E421-433A-A7CE-4958C44E89AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>DashNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -590,7 +586,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -663,7 +659,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -738,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
@@ -764,10 +760,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -793,16 +789,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
@@ -816,16 +812,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -845,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -871,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -897,7 +893,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -923,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -938,7 +934,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -946,10 +942,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>

--- a/Assets/Excels/ShurikenDB.xlsx
+++ b/Assets/Excels/ShurikenDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\W07_BSHSMZOHICSM\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F961892-E421-433A-A7CE-4958C44E89AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C924AF-A2FD-4BF8-AC30-E0F9FD86DD31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" xr2:uid="{C7371B68-9CBA-4B53-9EC5-2D48B24F01A9}"/>
   </bookViews>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수리검을 하나 더 가질 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>meritAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cartridge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,103 +103,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>체력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시 수 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 대시 수가 1 늘어납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DashNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대사거리 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던지는 수리검의 수가 2개 늘어납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아와!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 20 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 5 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차징 단계가 1 늘어납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검이 바닥에 떨어지면 자동으로 주인에게 돌아옵니다.(중첩불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검이 폭발을 일으킵니다!(중첩불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검에 유도 기능이 생깁니다.(중첩불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 체력이 50으로 고정됩니다. 수리검을 상대에게 3번 맞추면 상대가 즉사합니다.(중첩불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검을 두 개 더 가질 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검의 차징 속도가 100% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차징 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ChargeSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkDmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대시 수 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 대시 수가 1 늘어납니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DashNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대사거리 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차징속도 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검의 차징 속도가 50% 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던지는 수리검의 수가 2개 늘어납니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌아와!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 20 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력이 5 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차징 단계가 1 늘어납니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검이 벽에 부딪히면 튕깁니다. 튕긴 수리검은 2배의 데미지를 줍니다.(중첩불가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검이 바닥에 떨어지면 자동으로 주인에게 돌아옵니다.(중첩불가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검이 폭발을 일으킵니다!(중첩불가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검에 유도 기능이 생깁니다.(중첩불가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리검이 거미줄을 소환합니다. 거미줄 안에 있는 적은 대시할 수 없습니다.(중첩불가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신의 체력이 50으로 고정됩니다. 수리검을 상대에게 3번 맞추면 상대가 즉사합니다.(중첩불가)</t>
+  </si>
+  <si>
+    <t>수리검이 벽에 부딪히면 튕깁니다. 튕긴 수리검은 1.5배의 데미지를 줍니다.(중첩불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리검이 거미줄을 소환합니다. 거미줄 안에서는 느려지고 대시할 수 없습니다.(중첩불가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +585,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,19 +609,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -630,22 +629,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -656,22 +655,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -685,22 +684,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -708,22 +707,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -734,22 +733,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -760,25 +759,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -789,19 +788,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1">
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -812,22 +811,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -841,19 +840,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1">
         <v>30</v>
@@ -867,19 +866,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H11" s="1">
         <v>5</v>
@@ -893,19 +892,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
@@ -919,19 +918,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1">
         <v>20</v>
@@ -942,22 +941,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
